--- a/Tchipl Robo-taxi.xlsx
+++ b/Tchipl Robo-taxi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85871D5B-28DB-42E6-8384-38E58232BDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EB6297-4EDB-430A-8903-13141704110D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF852A15-0E83-4085-B225-35F2C881555B}"/>
   </bookViews>
@@ -215,9 +215,6 @@
     <t>Unloaded = 5 tons, Loaded = 7 tons</t>
   </si>
   <si>
-    <t>1/2, Fusion-12 = 1MW, Duration = 55/18</t>
-  </si>
-  <si>
     <t>NOE = 160kph, Cruise = 750kph, Top = 1000kph</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   </si>
   <si>
     <t>TĈIṖ</t>
+  </si>
+  <si>
+    <t>1/2, Fusion-12 = 10MW, Duration = 55/18</t>
   </si>
 </sst>
 </file>
@@ -691,7 +691,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,7 +704,7 @@
         <v>44</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -733,7 +733,7 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -741,12 +741,12 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -754,7 +754,7 @@
         <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -762,12 +762,12 @@
         <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -780,12 +780,12 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -793,12 +793,12 @@
         <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -806,7 +806,7 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1166,7 @@
         <v>0.2</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="H2:I2" si="0">E2*$F$2</f>
+        <f t="shared" ref="I2" si="0">E2*$F$2</f>
         <v>3000000</v>
       </c>
       <c r="J2">

--- a/Tchipl Robo-taxi.xlsx
+++ b/Tchipl Robo-taxi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkaz1\Documents\GitHub\Zdetl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EB6297-4EDB-430A-8903-13141704110D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE01B3C-D67D-4BC3-8C8E-A8F12F20E6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF852A15-0E83-4085-B225-35F2C881555B}"/>
   </bookViews>
@@ -691,7 +691,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
